--- a/学校下的子网站.xlsx
+++ b/学校下的子网站.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9767"/>
+    <workbookView windowWidth="30720" windowHeight="14088"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="2362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="2373">
   <si>
     <t>学校</t>
   </si>
@@ -6432,97 +6432,130 @@
     <t>西湖大学</t>
   </si>
   <si>
+    <t>https://sls.westlake.edu.cn/Our_Faculty/</t>
+  </si>
+  <si>
     <t>中央民族大学</t>
   </si>
   <si>
+    <t>https://cles.muc.edu.cn/szdw/zgjs1.htm</t>
+  </si>
+  <si>
     <t>东北大学</t>
   </si>
   <si>
+    <t>http://www.clhs.neu.edu.cn/1940/list.htm</t>
+  </si>
+  <si>
     <t>国防科学技术大学</t>
   </si>
   <si>
-    <t>中央财经大学</t>
+    <t>https://biox.ustc.edu.cn/js/list.htm</t>
   </si>
   <si>
     <t>内蒙古大学</t>
   </si>
   <si>
-    <t>大连海事大学</t>
-  </si>
-  <si>
-    <t>合肥工业大学</t>
+    <t>https://smkxxy.imu.edu.cn/szdw/zgj.htm</t>
+  </si>
+  <si>
+    <t>https://lst.hzau.edu.cn/szdw/jzyg.htm</t>
   </si>
   <si>
     <t>海南大学</t>
   </si>
   <si>
+    <t>https://slhs.hainanu.edu.cn/szdw.htm</t>
+  </si>
+  <si>
     <t>四川农业大学</t>
   </si>
   <si>
+    <t>https://smkx.sicau.edu.cn/szdw/zjrc.htm</t>
+  </si>
+  <si>
     <t>贵州大学</t>
   </si>
   <si>
-    <t>青海大学</t>
+    <t>http://life.gzu.edu.cn/2999/list.htm</t>
   </si>
   <si>
     <t>天津医科大学</t>
   </si>
   <si>
+    <t>http://www.tmu.edu.cn/swyxgc/test/list.htm</t>
+  </si>
+  <si>
     <t>辽宁大学</t>
   </si>
   <si>
-    <t>第二军医大学 </t>
-  </si>
-  <si>
-    <t>华中师范大学</t>
-  </si>
-  <si>
-    <t>湖南师范大学</t>
-  </si>
-  <si>
-    <t>西南财经大学</t>
+    <t>https://lifesci.lnu.edu.cn/szll/js.htm</t>
   </si>
   <si>
     <t>云南大学</t>
   </si>
   <si>
+    <t>http://www.ynusky.ynu.edu.cn/szdw.htm</t>
+  </si>
+  <si>
     <t>陕西师范大学</t>
   </si>
   <si>
+    <t>https://lifesci.snnu.edu.cn/szdw/jxkyry.htm</t>
+  </si>
+  <si>
     <t>宁夏大学</t>
   </si>
   <si>
+    <t>https://sls.nxu.edu.cn/szdw1/dsdw1.htm</t>
+  </si>
+  <si>
     <t>北京体育大学</t>
   </si>
   <si>
-    <t>华北电力大学</t>
+    <t>https://ssc.bsu.edu.cn/szdw/ydslxjys/index.htm</t>
   </si>
   <si>
     <t>河北工业大学</t>
   </si>
   <si>
+    <t>https://hsbme.hebut.edu.cn/szdw/jcrc/index.htm</t>
+  </si>
+  <si>
     <t>延边大学</t>
   </si>
   <si>
+    <t>https://ydyxy.ybu.edu.cn/jgsz/jxjg/jcyxx/szqk/slxyblslx.htm</t>
+  </si>
+  <si>
     <t>东北农业大学</t>
   </si>
   <si>
-    <t>南京理工大学</t>
+    <t>https://smkxxy.neau.edu.cn/szdw/swkxx.htm</t>
   </si>
   <si>
     <t>安徽大学</t>
   </si>
   <si>
+    <t>https://life.ahu.edu.cn/10934/list.htm</t>
+  </si>
+  <si>
     <t>福州大学</t>
   </si>
   <si>
-    <t>中南财经政法大学</t>
+    <t>https://bio.fzu.edu.cn/szdw/jsml.htm</t>
   </si>
   <si>
     <t>华南师范大学</t>
   </si>
   <si>
+    <t>https://life.scnu.edu.cn/xuekejianshe/shiziduiwu/zhuanrenjiaoshi/</t>
+  </si>
+  <si>
     <t>西南交通大学</t>
+  </si>
+  <si>
+    <t>https://bioeng.swjtu.edu.cn/xygk/szdw.htm</t>
   </si>
   <si>
     <t>西藏大学</t>
@@ -7383,7 +7416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7411,6 +7444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7757,7 +7796,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7781,16 +7820,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -7799,89 +7838,89 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7946,6 +7985,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8482,8 +8524,8 @@
   <sheetPr/>
   <dimension ref="A1:E2326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2248" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B2250"/>
+    <sheetView tabSelected="1" topLeftCell="A2188" workbookViewId="0">
+      <selection activeCell="B2141" sqref="B2141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -19184,320 +19226,331 @@
       </c>
     </row>
     <row r="2140" spans="1:2">
-      <c r="A2140" t="s">
+      <c r="A2140" s="22" t="s">
         <v>2122</v>
       </c>
-      <c r="B2140" s="21"/>
+      <c r="B2140" s="21" t="s">
+        <v>2123</v>
+      </c>
     </row>
     <row r="2141" spans="1:2">
       <c r="A2141" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B2141" s="21"/>
+        <v>2124</v>
+      </c>
+      <c r="B2141" s="21" t="s">
+        <v>2125</v>
+      </c>
     </row>
     <row r="2142" spans="1:2">
       <c r="A2142" t="s">
-        <v>2124</v>
-      </c>
-      <c r="B2142" s="21"/>
+        <v>2126</v>
+      </c>
+      <c r="B2142" s="21" t="s">
+        <v>2127</v>
+      </c>
     </row>
     <row r="2143" spans="1:2">
       <c r="A2143" t="s">
-        <v>2125</v>
-      </c>
-      <c r="B2143" s="21"/>
-    </row>
-    <row r="2144" spans="1:2">
-      <c r="A2144" t="s">
-        <v>2126</v>
-      </c>
+        <v>2128</v>
+      </c>
+      <c r="B2143" s="21" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="2144" spans="2:2">
       <c r="B2144" s="21"/>
     </row>
     <row r="2145" spans="1:2">
       <c r="A2145" t="s">
-        <v>2127</v>
-      </c>
-      <c r="B2145" s="21"/>
-    </row>
-    <row r="2146" spans="1:2">
-      <c r="A2146" t="s">
-        <v>2128</v>
-      </c>
+        <v>2130</v>
+      </c>
+      <c r="B2145" s="21" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="2146" spans="2:2">
       <c r="B2146" s="21"/>
     </row>
-    <row r="2147" spans="1:2">
-      <c r="A2147" t="s">
-        <v>2129</v>
-      </c>
+    <row r="2147" spans="2:2">
       <c r="B2147" s="21"/>
     </row>
     <row r="2148" spans="1:2">
       <c r="A2148" t="s">
         <v>1997</v>
       </c>
-      <c r="B2148" s="21"/>
+      <c r="B2148" s="21" t="s">
+        <v>2132</v>
+      </c>
     </row>
     <row r="2149" spans="1:2">
       <c r="A2149" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B2149" s="21"/>
+        <v>2133</v>
+      </c>
+      <c r="B2149" s="21" t="s">
+        <v>2134</v>
+      </c>
     </row>
     <row r="2150" spans="1:2">
       <c r="A2150" t="s">
-        <v>2131</v>
-      </c>
-      <c r="B2150" s="21"/>
+        <v>2135</v>
+      </c>
+      <c r="B2150" s="21" t="s">
+        <v>2136</v>
+      </c>
     </row>
     <row r="2151" spans="1:2">
       <c r="A2151" t="s">
-        <v>2132</v>
-      </c>
-      <c r="B2151" s="21"/>
-    </row>
-    <row r="2152" spans="1:2">
-      <c r="A2152" t="s">
-        <v>2133</v>
-      </c>
+        <v>2137</v>
+      </c>
+      <c r="B2151" s="21" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="2152" spans="2:2">
       <c r="B2152" s="21"/>
     </row>
     <row r="2153" spans="1:2">
       <c r="A2153" t="s">
-        <v>2134</v>
-      </c>
-      <c r="B2153" s="21"/>
+        <v>2139</v>
+      </c>
+      <c r="B2153" s="21" t="s">
+        <v>2140</v>
+      </c>
     </row>
     <row r="2154" spans="1:2">
       <c r="A2154" t="s">
-        <v>2135</v>
-      </c>
-      <c r="B2154" s="21"/>
-    </row>
-    <row r="2155" spans="1:2">
-      <c r="A2155" t="s">
-        <v>2136</v>
-      </c>
+        <v>2141</v>
+      </c>
+      <c r="B2154" s="21" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="2155" spans="2:2">
       <c r="B2155" s="21"/>
     </row>
-    <row r="2156" spans="1:2">
-      <c r="A2156" t="s">
-        <v>2137</v>
-      </c>
+    <row r="2156" spans="2:2">
       <c r="B2156" s="21"/>
     </row>
-    <row r="2157" spans="1:2">
-      <c r="A2157" t="s">
-        <v>2138</v>
-      </c>
+    <row r="2157" spans="2:2">
       <c r="B2157" s="21"/>
     </row>
-    <row r="2158" spans="1:2">
-      <c r="A2158" t="s">
-        <v>2139</v>
-      </c>
+    <row r="2158" spans="2:2">
       <c r="B2158" s="21"/>
     </row>
     <row r="2159" spans="1:2">
       <c r="A2159" t="s">
-        <v>2140</v>
-      </c>
-      <c r="B2159" s="21"/>
+        <v>2143</v>
+      </c>
+      <c r="B2159" s="21" t="s">
+        <v>2144</v>
+      </c>
     </row>
     <row r="2160" spans="1:2">
       <c r="A2160" t="s">
-        <v>2141</v>
-      </c>
-      <c r="B2160" s="21"/>
+        <v>2145</v>
+      </c>
+      <c r="B2160" s="21" t="s">
+        <v>2146</v>
+      </c>
     </row>
     <row r="2161" spans="1:2">
       <c r="A2161" t="s">
-        <v>2142</v>
-      </c>
-      <c r="B2161" s="21"/>
+        <v>2147</v>
+      </c>
+      <c r="B2161" s="21" t="s">
+        <v>2148</v>
+      </c>
     </row>
     <row r="2162" spans="1:2">
       <c r="A2162" t="s">
-        <v>2143</v>
-      </c>
-      <c r="B2162" s="21"/>
-    </row>
-    <row r="2163" spans="1:2">
-      <c r="A2163" t="s">
-        <v>2144</v>
-      </c>
+        <v>2149</v>
+      </c>
+      <c r="B2162" s="21" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="2163" spans="2:2">
       <c r="B2163" s="21"/>
     </row>
     <row r="2164" spans="1:2">
       <c r="A2164" t="s">
-        <v>2145</v>
-      </c>
-      <c r="B2164" s="21"/>
+        <v>2151</v>
+      </c>
+      <c r="B2164" s="21" t="s">
+        <v>2152</v>
+      </c>
     </row>
     <row r="2165" spans="1:2">
       <c r="A2165" t="s">
-        <v>2146</v>
-      </c>
-      <c r="B2165" s="21"/>
+        <v>2153</v>
+      </c>
+      <c r="B2165" s="21" t="s">
+        <v>2154</v>
+      </c>
     </row>
     <row r="2166" spans="1:2">
       <c r="A2166" t="s">
-        <v>2147</v>
-      </c>
-      <c r="B2166" s="21"/>
-    </row>
-    <row r="2167" spans="1:2">
-      <c r="A2167" t="s">
-        <v>2148</v>
-      </c>
+        <v>2155</v>
+      </c>
+      <c r="B2166" s="21" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="2167" spans="2:2">
       <c r="B2167" s="21"/>
     </row>
     <row r="2168" spans="1:2">
       <c r="A2168" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B2168" s="21"/>
+        <v>2157</v>
+      </c>
+      <c r="B2168" s="21" t="s">
+        <v>2158</v>
+      </c>
     </row>
     <row r="2169" spans="1:2">
       <c r="A2169" t="s">
-        <v>2150</v>
-      </c>
-      <c r="B2169" s="21"/>
-    </row>
-    <row r="2170" spans="1:2">
-      <c r="A2170" t="s">
-        <v>2151</v>
-      </c>
+        <v>2159</v>
+      </c>
+      <c r="B2169" s="21" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="2170" spans="2:2">
       <c r="B2170" s="21"/>
     </row>
     <row r="2171" spans="1:2">
       <c r="A2171" t="s">
-        <v>2152</v>
-      </c>
-      <c r="B2171" s="21"/>
+        <v>2161</v>
+      </c>
+      <c r="B2171" s="21" t="s">
+        <v>2162</v>
+      </c>
     </row>
     <row r="2172" spans="1:2">
       <c r="A2172" t="s">
-        <v>2153</v>
-      </c>
-      <c r="B2172" s="21"/>
+        <v>2163</v>
+      </c>
+      <c r="B2172" s="21" t="s">
+        <v>2164</v>
+      </c>
     </row>
     <row r="2173" spans="1:2">
       <c r="A2173" t="s">
-        <v>2154</v>
+        <v>2165</v>
       </c>
       <c r="B2173" s="21"/>
     </row>
     <row r="2174" spans="1:2">
       <c r="A2174" t="s">
-        <v>2155</v>
+        <v>2166</v>
       </c>
       <c r="B2174" s="21"/>
     </row>
     <row r="2175" spans="1:2">
       <c r="A2175" t="s">
-        <v>2156</v>
+        <v>2167</v>
       </c>
       <c r="B2175" s="21"/>
     </row>
     <row r="2176" spans="1:2">
       <c r="A2176" t="s">
-        <v>2157</v>
+        <v>2168</v>
       </c>
       <c r="B2176" s="21"/>
     </row>
     <row r="2177" spans="1:2">
       <c r="A2177" t="s">
-        <v>2158</v>
+        <v>2169</v>
       </c>
       <c r="B2177" s="21"/>
     </row>
     <row r="2178" spans="1:2">
       <c r="A2178" t="s">
-        <v>2159</v>
+        <v>2170</v>
       </c>
       <c r="B2178" s="21"/>
     </row>
     <row r="2179" spans="1:2">
       <c r="A2179" t="s">
-        <v>2160</v>
+        <v>2171</v>
       </c>
       <c r="B2179" s="21"/>
     </row>
     <row r="2180" spans="1:2">
       <c r="A2180" t="s">
-        <v>2161</v>
+        <v>2172</v>
       </c>
       <c r="B2180" s="21"/>
     </row>
     <row r="2181" spans="1:2">
       <c r="A2181" t="s">
-        <v>2162</v>
+        <v>2173</v>
       </c>
       <c r="B2181" s="21"/>
     </row>
     <row r="2182" spans="1:2">
       <c r="A2182" t="s">
-        <v>2163</v>
+        <v>2174</v>
       </c>
       <c r="B2182" s="21"/>
     </row>
     <row r="2183" spans="1:2">
       <c r="A2183" t="s">
-        <v>2164</v>
+        <v>2175</v>
       </c>
       <c r="B2183" s="21"/>
     </row>
     <row r="2184" spans="1:2">
       <c r="A2184" t="s">
-        <v>2165</v>
+        <v>2176</v>
       </c>
       <c r="B2184" s="21"/>
     </row>
     <row r="2185" spans="1:2">
       <c r="A2185" t="s">
-        <v>2166</v>
+        <v>2177</v>
       </c>
       <c r="B2185" s="21"/>
     </row>
     <row r="2186" spans="1:2">
       <c r="A2186" t="s">
-        <v>2167</v>
+        <v>2178</v>
       </c>
       <c r="B2186" s="21"/>
     </row>
     <row r="2187" spans="1:2">
-      <c r="A2187" t="s">
-        <v>2168</v>
+      <c r="A2187" s="22" t="s">
+        <v>2179</v>
       </c>
       <c r="B2187" s="21"/>
     </row>
     <row r="2188" spans="1:2">
       <c r="A2188" t="s">
-        <v>2169</v>
+        <v>2180</v>
       </c>
       <c r="B2188" t="s">
-        <v>2170</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
       <c r="A2189" t="s">
-        <v>2171</v>
+        <v>2182</v>
       </c>
       <c r="B2189" t="s">
-        <v>2172</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="2190" spans="1:2">
       <c r="A2190" t="s">
-        <v>2173</v>
+        <v>2184</v>
       </c>
       <c r="B2190" t="s">
-        <v>2174</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
       <c r="A2191" t="s">
-        <v>2175</v>
+        <v>2186</v>
       </c>
       <c r="B2191" t="s">
         <v>2085</v>
@@ -19505,74 +19558,74 @@
     </row>
     <row r="2192" spans="1:2">
       <c r="A2192" t="s">
-        <v>2176</v>
+        <v>2187</v>
       </c>
       <c r="B2192" t="s">
-        <v>2177</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="2193" spans="1:2">
       <c r="A2193" t="s">
-        <v>2178</v>
+        <v>2189</v>
       </c>
       <c r="B2193" t="s">
-        <v>2179</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="2194" spans="1:2">
       <c r="A2194" t="s">
-        <v>2180</v>
+        <v>2191</v>
       </c>
       <c r="B2194" t="s">
-        <v>2181</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="2195" spans="1:2">
       <c r="A2195" t="s">
-        <v>2182</v>
+        <v>2193</v>
       </c>
       <c r="B2195" t="s">
-        <v>2183</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
       <c r="A2196" t="s">
-        <v>2184</v>
+        <v>2195</v>
       </c>
       <c r="B2196" t="s">
-        <v>2185</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
       <c r="A2197" t="s">
-        <v>2186</v>
+        <v>2197</v>
       </c>
       <c r="B2197" t="s">
-        <v>2187</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="2198" spans="1:2">
       <c r="A2198" t="s">
-        <v>2188</v>
+        <v>2199</v>
       </c>
       <c r="B2198" t="s">
-        <v>2189</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="2199" spans="1:2">
       <c r="A2199" t="s">
-        <v>2190</v>
+        <v>2201</v>
       </c>
       <c r="B2199" t="s">
-        <v>2191</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
       <c r="A2200" t="s">
-        <v>2192</v>
+        <v>2203</v>
       </c>
       <c r="B2200" t="s">
-        <v>2193</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="2202" spans="1:2">
@@ -19580,95 +19633,95 @@
         <v>2071</v>
       </c>
       <c r="B2202" t="s">
-        <v>2194</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="2203" spans="1:2">
       <c r="A2203" t="s">
-        <v>2195</v>
+        <v>2206</v>
       </c>
       <c r="B2203" t="s">
-        <v>2196</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
       <c r="A2204" t="s">
-        <v>2197</v>
+        <v>2208</v>
       </c>
       <c r="B2204" t="s">
-        <v>2198</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
       <c r="A2205" t="s">
-        <v>2199</v>
+        <v>2210</v>
       </c>
       <c r="B2205" t="s">
-        <v>2200</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
       <c r="A2206" t="s">
-        <v>2201</v>
+        <v>2212</v>
       </c>
       <c r="B2206" t="s">
-        <v>2202</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="2207" spans="1:2">
       <c r="A2207" t="s">
-        <v>2203</v>
+        <v>2214</v>
       </c>
       <c r="B2207" t="s">
-        <v>2204</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
       <c r="A2208" t="s">
-        <v>2205</v>
+        <v>2216</v>
       </c>
       <c r="B2208" t="s">
-        <v>2206</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
       <c r="A2209" t="s">
-        <v>2207</v>
+        <v>2218</v>
       </c>
       <c r="B2209" t="s">
-        <v>2208</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="2210" spans="1:2">
       <c r="A2210" t="s">
-        <v>2209</v>
+        <v>2220</v>
       </c>
       <c r="B2210" t="s">
-        <v>2210</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
       <c r="A2211" t="s">
-        <v>2211</v>
+        <v>2222</v>
       </c>
       <c r="B2211" t="s">
-        <v>2212</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="2212" spans="1:2">
       <c r="A2212" t="s">
-        <v>2213</v>
+        <v>2224</v>
       </c>
       <c r="B2212" t="s">
-        <v>2214</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="2213" spans="1:2">
       <c r="A2213" t="s">
-        <v>2215</v>
+        <v>2226</v>
       </c>
       <c r="B2213" t="s">
-        <v>2216</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="2214" spans="1:2">
@@ -19676,482 +19729,482 @@
         <v>2075</v>
       </c>
       <c r="B2214" t="s">
-        <v>2217</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
       <c r="A2215" t="s">
-        <v>2218</v>
+        <v>2229</v>
       </c>
       <c r="B2215" t="s">
-        <v>2219</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
       <c r="A2216" t="s">
-        <v>2220</v>
+        <v>2231</v>
       </c>
       <c r="B2216" t="s">
-        <v>2221</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="2217" spans="1:2">
       <c r="A2217" t="s">
-        <v>2222</v>
+        <v>2233</v>
       </c>
       <c r="B2217" t="s">
-        <v>2223</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
       <c r="A2218" t="s">
-        <v>2224</v>
+        <v>2235</v>
       </c>
       <c r="B2218" t="s">
-        <v>2225</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="2219" spans="1:2">
       <c r="A2219" t="s">
-        <v>2226</v>
+        <v>2237</v>
       </c>
       <c r="B2219" t="s">
-        <v>2227</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="2220" spans="1:2">
       <c r="A2220" t="s">
-        <v>2228</v>
+        <v>2239</v>
       </c>
       <c r="B2220" t="s">
-        <v>2229</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="2221" spans="1:2">
       <c r="A2221" t="s">
-        <v>2230</v>
+        <v>2241</v>
       </c>
       <c r="B2221" t="s">
-        <v>2231</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="2222" spans="1:2">
       <c r="A2222" t="s">
-        <v>2232</v>
+        <v>2243</v>
       </c>
       <c r="B2222" t="s">
-        <v>2233</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="2223" spans="1:2">
       <c r="A2223" t="s">
-        <v>2234</v>
+        <v>2245</v>
       </c>
       <c r="B2223" t="s">
-        <v>2235</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
       <c r="A2224" t="s">
-        <v>2236</v>
+        <v>2247</v>
       </c>
       <c r="B2224" t="s">
-        <v>2237</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
       <c r="A2225" t="s">
-        <v>2238</v>
+        <v>2249</v>
       </c>
       <c r="B2225" t="s">
-        <v>2239</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
       <c r="A2226" t="s">
-        <v>2240</v>
+        <v>2251</v>
       </c>
       <c r="B2226" t="s">
-        <v>2241</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="2228" spans="1:2">
       <c r="A2228" t="s">
-        <v>2242</v>
+        <v>2253</v>
       </c>
       <c r="B2228" t="s">
-        <v>2243</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="2229" spans="1:2">
       <c r="A2229" t="s">
-        <v>2244</v>
+        <v>2255</v>
       </c>
       <c r="B2229" t="s">
-        <v>2245</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="2230" spans="1:2">
       <c r="A2230" t="s">
-        <v>2246</v>
+        <v>2257</v>
       </c>
       <c r="B2230" t="s">
-        <v>2247</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="2231" spans="1:2">
       <c r="A2231" t="s">
-        <v>2248</v>
+        <v>2259</v>
       </c>
       <c r="B2231" t="s">
-        <v>2249</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
       <c r="A2232" t="s">
-        <v>2250</v>
+        <v>2261</v>
       </c>
       <c r="B2232" t="s">
-        <v>2251</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="2233" spans="1:2">
       <c r="A2233" t="s">
-        <v>2252</v>
+        <v>2263</v>
       </c>
       <c r="B2233" t="s">
-        <v>2253</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="2234" spans="1:2">
       <c r="A2234" t="s">
-        <v>2254</v>
+        <v>2265</v>
       </c>
       <c r="B2234" t="s">
-        <v>2255</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="2235" spans="1:2">
       <c r="A2235" t="s">
-        <v>2256</v>
+        <v>2267</v>
       </c>
       <c r="B2235" t="s">
-        <v>2257</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
       <c r="A2236" t="s">
-        <v>2258</v>
+        <v>2269</v>
       </c>
       <c r="B2236" t="s">
-        <v>2259</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="2237" spans="1:2">
       <c r="A2237" t="s">
-        <v>2260</v>
+        <v>2271</v>
       </c>
       <c r="B2237" t="s">
-        <v>2261</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="2238" spans="1:2">
       <c r="A2238" t="s">
-        <v>2262</v>
+        <v>2273</v>
       </c>
       <c r="B2238" t="s">
-        <v>2263</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
       <c r="A2239" t="s">
-        <v>2264</v>
+        <v>2275</v>
       </c>
       <c r="B2239" t="s">
-        <v>2265</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
       <c r="A2240" t="s">
-        <v>2266</v>
+        <v>2277</v>
       </c>
       <c r="B2240" t="s">
-        <v>2267</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="2241" spans="1:2">
       <c r="A2241" t="s">
-        <v>2268</v>
+        <v>2279</v>
       </c>
       <c r="B2241" t="s">
-        <v>2269</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
       <c r="A2242" t="s">
-        <v>2270</v>
+        <v>2281</v>
       </c>
       <c r="B2242" t="s">
-        <v>2271</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
       <c r="A2243" t="s">
-        <v>2272</v>
+        <v>2283</v>
       </c>
       <c r="B2243" t="s">
-        <v>2273</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="2244" spans="1:2">
       <c r="A2244" t="s">
-        <v>2274</v>
+        <v>2285</v>
       </c>
       <c r="B2244" t="s">
-        <v>2275</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="2245" spans="1:2">
       <c r="A2245" t="s">
-        <v>2276</v>
+        <v>2287</v>
       </c>
       <c r="B2245" t="s">
-        <v>2277</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
       <c r="A2246" t="s">
-        <v>2278</v>
+        <v>2289</v>
       </c>
       <c r="B2246" t="s">
-        <v>2279</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
       <c r="A2247" t="s">
-        <v>2280</v>
+        <v>2291</v>
       </c>
       <c r="B2247" t="s">
-        <v>2281</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="2248" spans="1:2">
       <c r="A2248" t="s">
-        <v>2282</v>
+        <v>2293</v>
       </c>
       <c r="B2248" t="s">
-        <v>2283</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="2249" spans="1:2">
       <c r="A2249" t="s">
-        <v>2284</v>
+        <v>2295</v>
       </c>
       <c r="B2249" t="s">
-        <v>2285</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
       <c r="A2250" t="s">
-        <v>2286</v>
+        <v>2297</v>
       </c>
       <c r="B2250" t="s">
-        <v>2287</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="2251" spans="1:1">
-      <c r="A2251" t="s">
-        <v>2288</v>
+      <c r="A2251" s="22" t="s">
+        <v>2299</v>
       </c>
     </row>
     <row r="2252" spans="1:1">
       <c r="A2252" t="s">
-        <v>2289</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="2253" spans="1:1">
       <c r="A2253" t="s">
-        <v>2290</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="2254" spans="1:1">
       <c r="A2254" t="s">
-        <v>2291</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="2255" spans="1:1">
       <c r="A2255" t="s">
-        <v>2292</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="2256" spans="1:1">
       <c r="A2256" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="2257" spans="1:1">
       <c r="A2257" t="s">
-        <v>2294</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="2258" spans="1:1">
       <c r="A2258" t="s">
-        <v>2295</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="2259" spans="1:1">
       <c r="A2259" t="s">
-        <v>2296</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="2260" spans="1:1">
       <c r="A2260" t="s">
-        <v>2297</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="2261" spans="1:1">
       <c r="A2261" t="s">
-        <v>2298</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="2262" spans="1:1">
       <c r="A2262" t="s">
-        <v>2299</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="2263" spans="1:1">
       <c r="A2263" t="s">
-        <v>2300</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="2264" spans="1:1">
       <c r="A2264" t="s">
-        <v>2301</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="2265" spans="1:1">
       <c r="A2265" t="s">
-        <v>2302</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="2266" spans="1:1">
       <c r="A2266" t="s">
-        <v>2303</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="2267" spans="1:1">
       <c r="A2267" t="s">
-        <v>2304</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="2268" spans="1:1">
       <c r="A2268" t="s">
-        <v>2305</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="2269" spans="1:1">
       <c r="A2269" t="s">
-        <v>2306</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="2270" spans="1:1">
       <c r="A2270" t="s">
-        <v>2307</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="2271" spans="1:1">
       <c r="A2271" t="s">
-        <v>2308</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="2272" spans="1:1">
       <c r="A2272" t="s">
-        <v>2309</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="2273" spans="1:1">
       <c r="A2273" t="s">
-        <v>2310</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="2274" spans="1:1">
       <c r="A2274" t="s">
-        <v>2311</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="2275" spans="1:1">
       <c r="A2275" t="s">
-        <v>2312</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="2276" spans="1:1">
       <c r="A2276" t="s">
-        <v>2313</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="2277" spans="1:1">
       <c r="A2277" t="s">
-        <v>2314</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="2278" spans="1:1">
       <c r="A2278" t="s">
-        <v>2315</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="2279" spans="1:1">
       <c r="A2279" t="s">
-        <v>2316</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="2280" spans="1:1">
       <c r="A2280" t="s">
-        <v>2317</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="2281" spans="1:1">
       <c r="A2281" t="s">
-        <v>2318</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="2282" spans="1:1">
       <c r="A2282" t="s">
-        <v>2319</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="2283" spans="1:1">
       <c r="A2283" t="s">
-        <v>2320</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="2284" spans="1:1">
       <c r="A2284" t="s">
-        <v>2321</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="2285" spans="1:1">
       <c r="A2285" t="s">
-        <v>2322</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="2286" spans="1:1">
       <c r="A2286" t="s">
-        <v>2323</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="2287" spans="1:1">
       <c r="A2287" t="s">
-        <v>2324</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="2288" spans="1:1">
       <c r="A2288" t="s">
-        <v>2134</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="2289" spans="1:1">
       <c r="A2289" t="s">
-        <v>2325</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="2290" spans="1:1">
@@ -20161,185 +20214,185 @@
     </row>
     <row r="2291" spans="1:1">
       <c r="A2291" t="s">
-        <v>2164</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="2292" spans="1:1">
       <c r="A2292" t="s">
-        <v>2326</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="2293" spans="1:1">
       <c r="A2293" t="s">
-        <v>2327</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="2294" spans="1:1">
       <c r="A2294" t="s">
-        <v>2328</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="2295" spans="1:1">
       <c r="A2295" t="s">
-        <v>2329</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="2296" spans="1:1">
       <c r="A2296" t="s">
-        <v>2330</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="2297" spans="1:1">
       <c r="A2297" t="s">
-        <v>2331</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="2298" spans="1:1">
       <c r="A2298" t="s">
-        <v>2332</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="2299" spans="1:1">
       <c r="A2299" t="s">
-        <v>2333</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="2300" spans="1:1">
       <c r="A2300" t="s">
-        <v>2334</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="2301" spans="1:1">
       <c r="A2301" t="s">
-        <v>2335</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="2302" spans="1:1">
       <c r="A2302" t="s">
-        <v>2336</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="2303" spans="1:1">
       <c r="A2303" t="s">
-        <v>2337</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="2304" spans="1:1">
       <c r="A2304" t="s">
-        <v>2338</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="2305" spans="1:1">
       <c r="A2305" t="s">
-        <v>2339</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="2306" spans="1:1">
       <c r="A2306" t="s">
-        <v>2340</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="2307" spans="1:1">
       <c r="A2307" t="s">
-        <v>2341</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="2308" spans="1:1">
       <c r="A2308" t="s">
-        <v>2342</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="2309" spans="1:1">
       <c r="A2309" t="s">
-        <v>2343</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="2310" spans="1:1">
       <c r="A2310" t="s">
-        <v>2344</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="2311" spans="1:1">
       <c r="A2311" t="s">
-        <v>2345</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="2312" spans="1:1">
       <c r="A2312" t="s">
-        <v>2346</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="2313" spans="1:1">
       <c r="A2313" t="s">
-        <v>2347</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="2314" spans="1:1">
       <c r="A2314" t="s">
-        <v>2348</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="2315" spans="1:1">
       <c r="A2315" t="s">
-        <v>2349</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="2316" spans="1:1">
       <c r="A2316" t="s">
-        <v>2350</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="2317" spans="1:1">
       <c r="A2317" t="s">
-        <v>2351</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="2318" spans="1:1">
       <c r="A2318" t="s">
-        <v>2352</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="2319" spans="1:1">
       <c r="A2319" t="s">
-        <v>2353</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="2320" spans="1:1">
       <c r="A2320" t="s">
-        <v>2354</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="2321" spans="1:1">
       <c r="A2321" t="s">
-        <v>2355</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="2322" spans="1:1">
       <c r="A2322" t="s">
-        <v>2356</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="2323" spans="1:1">
       <c r="A2323" t="s">
-        <v>2357</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="2324" spans="1:1">
       <c r="A2324" t="s">
-        <v>2358</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="2325" spans="1:1">
-      <c r="A2325" t="s">
-        <v>2359</v>
+      <c r="A2325" s="22" t="s">
+        <v>2370</v>
       </c>
     </row>
     <row r="2326" spans="1:2">
       <c r="A2326" t="s">
-        <v>2360</v>
+        <v>2371</v>
       </c>
       <c r="B2326" t="s">
-        <v>2361</v>
+        <v>2372</v>
       </c>
     </row>
   </sheetData>
